--- a/examples/sources/data/unsolved/to_schedule/2019-03-25.xlsx
+++ b/examples/sources/data/unsolved/to_schedule/2019-03-25.xlsx
@@ -2364,7 +2364,7 @@
         <v>0</v>
       </c>
       <c r="M33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2408,7 +2408,7 @@
         <v>1</v>
       </c>
       <c r="N34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O34" s="2">
         <v>43549</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2965,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="M47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -3657,7 +3657,7 @@
         <v>0</v>
       </c>
       <c r="M63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -3698,7 +3698,7 @@
         <v>0</v>
       </c>
       <c r="M64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -3739,7 +3739,7 @@
         <v>0</v>
       </c>
       <c r="M65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -3783,7 +3783,7 @@
         <v>1</v>
       </c>
       <c r="N66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O66" s="2">
         <v>43549</v>
@@ -3824,7 +3824,7 @@
         <v>1</v>
       </c>
       <c r="N67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O67" s="2">
         <v>43549</v>
@@ -4763,7 +4763,7 @@
         <v>0</v>
       </c>
       <c r="M88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N88">
         <v>1</v>
@@ -5053,7 +5053,7 @@
         <v>1</v>
       </c>
       <c r="N95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O95" s="2">
         <v>43549</v>
@@ -5664,7 +5664,7 @@
         <v>0</v>
       </c>
       <c r="M108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N108">
         <v>1</v>
@@ -5714,7 +5714,7 @@
         <v>0</v>
       </c>
       <c r="M109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N109">
         <v>1</v>
